--- a/result.xlsx
+++ b/result.xlsx
@@ -44,8 +44,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,25 +73,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,9 +87,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,25 +119,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,6 +139,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -156,24 +147,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +157,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,9 +186,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -215,7 +215,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +239,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,7 +251,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,31 +293,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,19 +311,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,49 +335,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,19 +371,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,11 +429,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,30 +447,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,6 +468,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -505,133 +505,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,7 +640,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,8 +650,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -766,430 +769,21 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>"Result"</c:f>
+              <c:f>result!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Result</c:v>
+                  <c:v>result</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>result!$A$2:$A$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>114</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>result!$F$2:$F$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0.516166777908039</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.556991014903542</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.560102659187167</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.523578025395991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.559498450592318</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.562609862494256</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.523578025395991</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.559498450592318</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.562609862494256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.523578025395991</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.559498450592318</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.562609862494256</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.521377282671632</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.565358886120885</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.568470491989352</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.532020387946884</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.571170222009815</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.574281591378602</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.540254066123228</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.576145570919796</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.579183845434881</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.540254066123228</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.576145570919796</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.579183845434881</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.526661602212795</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.573491598561856</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.577194967382644</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.545210374409216</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.579268301184207</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.582968819786153</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.556980020207097</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.588564870798337</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.589138364703075</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.556980020207097</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.588564870798337</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.589138364703075</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.537590257758212</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.587252866664126</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.590728042785645</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.561028892703059</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.596695076282645</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.601625074503376</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.587998420339492</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.622328588803355</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.624269360534038</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.591731496597416</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.626057454710904</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.627997974790007</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.538722996730027</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.590470890288889</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.593909275027538</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.606568199093754</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.628596716786359</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.6330696177443</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.538722996730027</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.590470890288889</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.593909275027538</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.606568199093754</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.628596716786359</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.6330696177443</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>result!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>kmeansResult</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -1213,178 +807,589 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="39">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="48">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>76</c:v>
-                </c:pt>
                 <c:pt idx="50">
-                  <c:v>78</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>111</c:v>
                 </c:pt>
+                <c:pt idx="57">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>result!$F$2:$F$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.516166777908039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.523578025395991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.523578025395991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.523578025395991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.521377282671632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.532020387946884</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.526661602212795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.556991014903542</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.540254066123228</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.540254066123228</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.560102659187167</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.559498450592318</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.559498450592318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.559498450592318</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.562609862494256</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.562609862494256</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.562609862494256</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.545210374409216</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.565358886120885</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.568470491989352</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.571170222009815</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.574281591378602</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.556980020207097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.556980020207097</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.576145570919796</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.576145570919796</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.537590257758212</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.579183845434881</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.579183845434881</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.538722996730027</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.538722996730027</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.573491598561856</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.577194967382644</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.579268301184207</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.582968819786153</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.588564870798337</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.588564870798337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.561028892703059</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.589138364703075</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.589138364703075</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.587252866664126</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.590728042785645</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.596695076282645</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.590470890288889</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.590470890288889</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.593909275027538</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.593909275027538</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.601625074503376</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.587998420339492</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.591731496597416</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.606568199093754</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.606568199093754</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.622328588803355</c:v>
+                </c:pt>
                 <c:pt idx="53">
+                  <c:v>0.624269360534038</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.626057454710904</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.627997974790007</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.628596716786359</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.628596716786359</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.6330696177443</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6330696177443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kmeansResult</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>result!$A$2:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>114</c:v>
@@ -1402,178 +1407,178 @@
                   <c:v>0.408810202991357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.464077797281521</c:v>
+                  <c:v>0.448966315619163</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.445071491338131</c:v>
+                  <c:v>0.448966315619163</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.448966315619163</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.445071491338131</c:v>
+                  <c:v>0.429581614646033</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.466836636816766</c:v>
+                  <c:v>0.44835225300793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.448966315619163</c:v>
+                  <c:v>0.442025265683573</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.445071491338131</c:v>
+                  <c:v>0.464077797281521</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.466836636816766</c:v>
+                  <c:v>0.464077797281521</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.448966315619163</c:v>
+                  <c:v>0.464077797281521</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.445071491338131</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.445071491338131</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.445071491338131</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.445071491338131</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.466836636816766</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.429581614646033</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
+                  <c:v>0.466836636816766</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.466836636816766</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.470540208039117</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.451105737563396</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>0.458079530252104</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.44835225300793</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>0.48706180951737</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>0.48492815246225</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.464077797281521</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
+                  <c:v>0.48492815246225</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.48492815246225</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.484886169153148</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
+                  <c:v>0.484886169153148</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.484886169153148</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0.483081223689378</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.464077797281521</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.484886169153148</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>0.483081223689378</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.442025265683573</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
+                  <c:v>0.483081223689378</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.483081223689378</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0.497272235653214</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>0.493499917190007</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.470540208039117</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>0.493499917190007</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>0.512474473749563</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.48492815246225</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>0.519318941444759</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
+                  <c:v>0.519318941444759</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.519318941444759</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>0.523141637338013</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.48492815246225</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.519318941444759</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="39">
                   <c:v>0.523141637338013</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.484886169153148</c:v>
-                </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>0.5318440131015</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>0.532773204932942</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.519318941444759</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>0.540081691191612</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
+                  <c:v>0.540081691191612</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.540081691191612</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.564345860147633</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.564345860147633</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>0.546936552085958</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="48">
                   <c:v>0.539908563173692</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.59270923930847</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.595648346719839</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>0.544798568900989</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.595648346719839</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.586185140453932</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.483081223689378</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.540081691191612</c:v>
-                </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.564345860147633</c:v>
+                  <c:v>0.568698913920584</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0.568698913920584</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>0.59270923930847</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.595648346719839</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.595648346719839</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.586185140453932</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>0.624443949705153</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
+                  <c:v>0.624443949705153</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>0.607638058356661</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.483081223689378</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.540081691191612</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.564345860147633</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.568698913920584</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.624443949705153</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>0.607638058356661</c:v>
@@ -1593,8 +1598,8 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="425678370"/>
-        <c:axId val="726094990"/>
+        <c:axId val="724004819"/>
+        <c:axId val="439440052"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1606,20 +1611,20 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>result!$B$1</c15:sqref>
+                          <c15:sqref>result!$A$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>TAG_BRANCHING_OCCURRENCE_THRESHOLD</c:v>
+                        <c:v>centers</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="28575" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent1"/>
                     </a:solidFill>
@@ -1652,178 +1657,178 @@
                         <c:v>38</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>46</c:v>
+                        <c:v>40</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>47</c:v>
+                        <c:v>40</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>40</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>47</c:v>
+                        <c:v>41</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>48</c:v>
+                        <c:v>44</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>40</c:v>
+                        <c:v>45</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>47</c:v>
+                        <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>48</c:v>
+                        <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>40</c:v>
+                        <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>47</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
                         <c:v>48</c:v>
                       </c:pt>
-                      <c:pt idx="12">
-                        <c:v>41</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="15">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
                         <c:v>51</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="19">
                         <c:v>52</c:v>
                       </c:pt>
-                      <c:pt idx="15">
-                        <c:v>44</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="20">
                         <c:v>53</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="21">
                         <c:v>54</c:v>
                       </c:pt>
-                      <c:pt idx="18">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="22">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
                         <c:v>55</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="25">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
                         <c:v>56</c:v>
                       </c:pt>
-                      <c:pt idx="21">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="28">
                         <c:v>56</c:v>
                       </c:pt>
-                      <c:pt idx="24">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
+                      <c:pt idx="29">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
                         <c:v>58</c:v>
                       </c:pt>
-                      <c:pt idx="26">
+                      <c:pt idx="32">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="27">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
+                      <c:pt idx="33">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="29">
+                      <c:pt idx="34">
                         <c:v>62</c:v>
                       </c:pt>
-                      <c:pt idx="30">
-                        <c:v>54</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
+                      <c:pt idx="35">
                         <c:v>64</c:v>
                       </c:pt>
-                      <c:pt idx="32">
+                      <c:pt idx="36">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
                         <c:v>65</c:v>
                       </c:pt>
-                      <c:pt idx="33">
-                        <c:v>54</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
+                      <c:pt idx="39">
                         <c:v>65</c:v>
                       </c:pt>
-                      <c:pt idx="36">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
+                      <c:pt idx="40">
                         <c:v>71</c:v>
                       </c:pt>
-                      <c:pt idx="38">
+                      <c:pt idx="41">
                         <c:v>73</c:v>
                       </c:pt>
-                      <c:pt idx="39">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
+                      <c:pt idx="42">
                         <c:v>76</c:v>
                       </c:pt>
-                      <c:pt idx="41">
+                      <c:pt idx="43">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
                         <c:v>79</c:v>
                       </c:pt>
-                      <c:pt idx="42">
+                      <c:pt idx="48">
                         <c:v>81</c:v>
                       </c:pt>
-                      <c:pt idx="43">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>97</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
+                      <c:pt idx="49">
                         <c:v>83</c:v>
                       </c:pt>
-                      <c:pt idx="46">
-                        <c:v>97</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>99</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>76</c:v>
-                      </c:pt>
                       <c:pt idx="50">
-                        <c:v>78</c:v>
+                        <c:v>91</c:v>
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>91</c:v>
                       </c:pt>
                       <c:pt idx="52">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
                         <c:v>111</c:v>
                       </c:pt>
-                      <c:pt idx="53">
+                      <c:pt idx="57">
+                        <c:v>111</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
                         <c:v>114</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>111</c:v>
                       </c:pt>
                       <c:pt idx="59">
                         <c:v>114</c:v>
@@ -1836,7 +1841,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>result!$B$2:$B$61</c15:sqref>
+                          <c15:sqref>result!$A$2:$A$61</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1844,184 +1849,184 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="60"/>
                       <c:pt idx="0">
-                        <c:v>200</c:v>
+                        <c:v>38</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>200</c:v>
+                        <c:v>40</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>200</c:v>
+                        <c:v>40</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>200</c:v>
+                        <c:v>40</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>200</c:v>
+                        <c:v>41</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>200</c:v>
+                        <c:v>44</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>200</c:v>
+                        <c:v>45</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>200</c:v>
+                        <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>200</c:v>
+                        <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>200</c:v>
+                        <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>200</c:v>
+                        <c:v>47</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>200</c:v>
+                        <c:v>47</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>200</c:v>
+                        <c:v>47</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>200</c:v>
+                        <c:v>47</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>200</c:v>
+                        <c:v>48</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>200</c:v>
+                        <c:v>48</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>200</c:v>
+                        <c:v>48</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>200</c:v>
+                        <c:v>50</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>200</c:v>
+                        <c:v>51</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>200</c:v>
+                        <c:v>52</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>200</c:v>
+                        <c:v>53</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>200</c:v>
+                        <c:v>54</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>200</c:v>
+                        <c:v>54</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>200</c:v>
+                        <c:v>54</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>200</c:v>
+                        <c:v>55</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>200</c:v>
+                        <c:v>55</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>200</c:v>
+                        <c:v>55</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>200</c:v>
+                        <c:v>56</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>200</c:v>
+                        <c:v>56</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>200</c:v>
+                        <c:v>56</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>200</c:v>
+                        <c:v>56</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>200</c:v>
+                        <c:v>58</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>200</c:v>
+                        <c:v>60</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>200</c:v>
+                        <c:v>60</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>200</c:v>
+                        <c:v>62</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>200</c:v>
+                        <c:v>64</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>200</c:v>
+                        <c:v>64</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>200</c:v>
+                        <c:v>64</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>200</c:v>
+                        <c:v>65</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>200</c:v>
+                        <c:v>65</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>200</c:v>
+                        <c:v>71</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>200</c:v>
+                        <c:v>73</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>200</c:v>
+                        <c:v>76</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>200</c:v>
+                        <c:v>76</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>200</c:v>
+                        <c:v>76</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>200</c:v>
+                        <c:v>78</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>200</c:v>
+                        <c:v>78</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>200</c:v>
+                        <c:v>79</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>200</c:v>
+                        <c:v>81</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>200</c:v>
+                        <c:v>83</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>200</c:v>
+                        <c:v>91</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>200</c:v>
+                        <c:v>91</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>200</c:v>
+                        <c:v>95</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>200</c:v>
+                        <c:v>97</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>200</c:v>
+                        <c:v>97</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>200</c:v>
+                        <c:v>99</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>200</c:v>
+                        <c:v>111</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>200</c:v>
+                        <c:v>111</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>200</c:v>
+                        <c:v>114</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>200</c:v>
+                        <c:v>114</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2038,20 +2043,20 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>result!$C$1</c15:sqref>
+                          <c15:sqref>result!$B$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>BRANCH_OCCURRENCE_THRESHOLD</c:v>
+                        <c:v>TAG_BRANCHING_OCCURRENCE_THRESHOLD</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="28575" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent2"/>
                     </a:solidFill>
@@ -2084,178 +2089,178 @@
                         <c:v>38</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>46</c:v>
+                        <c:v>40</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>47</c:v>
+                        <c:v>40</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>40</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>47</c:v>
+                        <c:v>41</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>48</c:v>
+                        <c:v>44</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>40</c:v>
+                        <c:v>45</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>47</c:v>
+                        <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>48</c:v>
+                        <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>40</c:v>
+                        <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>47</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
                         <c:v>48</c:v>
                       </c:pt>
-                      <c:pt idx="12">
-                        <c:v>41</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="15">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
                         <c:v>51</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="19">
                         <c:v>52</c:v>
                       </c:pt>
-                      <c:pt idx="15">
-                        <c:v>44</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="20">
                         <c:v>53</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="21">
                         <c:v>54</c:v>
                       </c:pt>
-                      <c:pt idx="18">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="22">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
                         <c:v>55</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="25">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
                         <c:v>56</c:v>
                       </c:pt>
-                      <c:pt idx="21">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="28">
                         <c:v>56</c:v>
                       </c:pt>
-                      <c:pt idx="24">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
+                      <c:pt idx="29">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
                         <c:v>58</c:v>
                       </c:pt>
-                      <c:pt idx="26">
+                      <c:pt idx="32">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="27">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
+                      <c:pt idx="33">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="29">
+                      <c:pt idx="34">
                         <c:v>62</c:v>
                       </c:pt>
-                      <c:pt idx="30">
-                        <c:v>54</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
+                      <c:pt idx="35">
                         <c:v>64</c:v>
                       </c:pt>
-                      <c:pt idx="32">
+                      <c:pt idx="36">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
                         <c:v>65</c:v>
                       </c:pt>
-                      <c:pt idx="33">
-                        <c:v>54</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
+                      <c:pt idx="39">
                         <c:v>65</c:v>
                       </c:pt>
-                      <c:pt idx="36">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
+                      <c:pt idx="40">
                         <c:v>71</c:v>
                       </c:pt>
-                      <c:pt idx="38">
+                      <c:pt idx="41">
                         <c:v>73</c:v>
                       </c:pt>
-                      <c:pt idx="39">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
+                      <c:pt idx="42">
                         <c:v>76</c:v>
                       </c:pt>
-                      <c:pt idx="41">
+                      <c:pt idx="43">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
                         <c:v>79</c:v>
                       </c:pt>
-                      <c:pt idx="42">
+                      <c:pt idx="48">
                         <c:v>81</c:v>
                       </c:pt>
-                      <c:pt idx="43">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>97</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
+                      <c:pt idx="49">
                         <c:v>83</c:v>
                       </c:pt>
-                      <c:pt idx="46">
-                        <c:v>97</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>99</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>76</c:v>
-                      </c:pt>
                       <c:pt idx="50">
-                        <c:v>78</c:v>
+                        <c:v>91</c:v>
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>91</c:v>
                       </c:pt>
                       <c:pt idx="52">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
                         <c:v>111</c:v>
                       </c:pt>
-                      <c:pt idx="53">
+                      <c:pt idx="57">
+                        <c:v>111</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
                         <c:v>114</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>111</c:v>
                       </c:pt>
                       <c:pt idx="59">
                         <c:v>114</c:v>
@@ -2268,7 +2273,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>result!$C$2:$C$61</c15:sqref>
+                          <c15:sqref>result!$B$2:$B$61</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2276,184 +2281,184 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="60"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>100</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>100</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>100</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>100</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>100</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>100</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>100</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>100</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>100</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>100</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>70</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>70</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>70</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>70</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>70</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>70</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>70</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>70</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>70</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>70</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>70</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>70</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>50</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>50</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>50</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>50</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>50</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>50</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>50</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>50</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>50</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>50</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>50</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>50</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>30</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>30</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>30</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>30</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>30</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>30</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>30</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>30</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>30</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>30</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>30</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>30</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>10</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>10</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>10</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>10</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>10</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>10</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>1</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>1</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>1</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>1</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>1</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>1</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2470,20 +2475,20 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>result!$D$1</c15:sqref>
+                          <c15:sqref>result!$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>BRANCH_RATIO_THRESHOLD</c:v>
+                        <c:v>BRANCH_OCCURRENCE_THRESHOLD</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="28575" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent3"/>
                     </a:solidFill>
@@ -2516,178 +2521,178 @@
                         <c:v>38</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>46</c:v>
+                        <c:v>40</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>47</c:v>
+                        <c:v>40</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>40</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>47</c:v>
+                        <c:v>41</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>48</c:v>
+                        <c:v>44</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>40</c:v>
+                        <c:v>45</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>47</c:v>
+                        <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>48</c:v>
+                        <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>40</c:v>
+                        <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>47</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
                         <c:v>48</c:v>
                       </c:pt>
-                      <c:pt idx="12">
-                        <c:v>41</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="15">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
                         <c:v>51</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="19">
                         <c:v>52</c:v>
                       </c:pt>
-                      <c:pt idx="15">
-                        <c:v>44</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="20">
                         <c:v>53</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="21">
                         <c:v>54</c:v>
                       </c:pt>
-                      <c:pt idx="18">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="22">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
                         <c:v>55</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="25">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
                         <c:v>56</c:v>
                       </c:pt>
-                      <c:pt idx="21">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="28">
                         <c:v>56</c:v>
                       </c:pt>
-                      <c:pt idx="24">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
+                      <c:pt idx="29">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
                         <c:v>58</c:v>
                       </c:pt>
-                      <c:pt idx="26">
+                      <c:pt idx="32">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="27">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
+                      <c:pt idx="33">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="29">
+                      <c:pt idx="34">
                         <c:v>62</c:v>
                       </c:pt>
-                      <c:pt idx="30">
-                        <c:v>54</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
+                      <c:pt idx="35">
                         <c:v>64</c:v>
                       </c:pt>
-                      <c:pt idx="32">
+                      <c:pt idx="36">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
                         <c:v>65</c:v>
                       </c:pt>
-                      <c:pt idx="33">
-                        <c:v>54</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
+                      <c:pt idx="39">
                         <c:v>65</c:v>
                       </c:pt>
-                      <c:pt idx="36">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
+                      <c:pt idx="40">
                         <c:v>71</c:v>
                       </c:pt>
-                      <c:pt idx="38">
+                      <c:pt idx="41">
                         <c:v>73</c:v>
                       </c:pt>
-                      <c:pt idx="39">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
+                      <c:pt idx="42">
                         <c:v>76</c:v>
                       </c:pt>
-                      <c:pt idx="41">
+                      <c:pt idx="43">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
                         <c:v>79</c:v>
                       </c:pt>
-                      <c:pt idx="42">
+                      <c:pt idx="48">
                         <c:v>81</c:v>
                       </c:pt>
-                      <c:pt idx="43">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>97</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
+                      <c:pt idx="49">
                         <c:v>83</c:v>
                       </c:pt>
-                      <c:pt idx="46">
-                        <c:v>97</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>99</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>76</c:v>
-                      </c:pt>
                       <c:pt idx="50">
-                        <c:v>78</c:v>
+                        <c:v>91</c:v>
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>91</c:v>
                       </c:pt>
                       <c:pt idx="52">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
                         <c:v>111</c:v>
                       </c:pt>
-                      <c:pt idx="53">
+                      <c:pt idx="57">
+                        <c:v>111</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
                         <c:v>114</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>111</c:v>
                       </c:pt>
                       <c:pt idx="59">
                         <c:v>114</c:v>
@@ -2700,7 +2705,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>result!$D$2:$D$61</c15:sqref>
+                          <c15:sqref>result!$C$2:$C$61</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2708,184 +2713,184 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="60"/>
                       <c:pt idx="0">
-                        <c:v>0.1</c:v>
+                        <c:v>100</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.1</c:v>
+                        <c:v>100</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.1</c:v>
+                        <c:v>100</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.05</c:v>
+                        <c:v>100</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.05</c:v>
+                        <c:v>70</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.05</c:v>
+                        <c:v>70</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.01</c:v>
+                        <c:v>50</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.01</c:v>
+                        <c:v>100</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.01</c:v>
+                        <c:v>70</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.005</c:v>
+                        <c:v>70</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.005</c:v>
+                        <c:v>100</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.005</c:v>
+                        <c:v>100</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.1</c:v>
+                        <c:v>100</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.1</c:v>
+                        <c:v>100</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.1</c:v>
+                        <c:v>100</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0.05</c:v>
+                        <c:v>100</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0.05</c:v>
+                        <c:v>100</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0.05</c:v>
+                        <c:v>50</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0.01</c:v>
+                        <c:v>70</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0.01</c:v>
+                        <c:v>70</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>0.01</c:v>
+                        <c:v>70</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.005</c:v>
+                        <c:v>70</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0.005</c:v>
+                        <c:v>50</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.005</c:v>
+                        <c:v>50</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.1</c:v>
+                        <c:v>70</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>0.1</c:v>
+                        <c:v>70</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>0.1</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>0.05</c:v>
+                        <c:v>70</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>0.05</c:v>
+                        <c:v>70</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>0.05</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>0.01</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>0.01</c:v>
+                        <c:v>50</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>0.01</c:v>
+                        <c:v>50</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>0.005</c:v>
+                        <c:v>50</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>0.005</c:v>
+                        <c:v>50</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>0.005</c:v>
+                        <c:v>50</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>0.1</c:v>
+                        <c:v>50</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>0.1</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>0.1</c:v>
+                        <c:v>50</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>0.05</c:v>
+                        <c:v>50</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>0.05</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>0.05</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>0.01</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>0.01</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>0.01</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>0.005</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>0.005</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>0.005</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>0.1</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>0.1</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>0.1</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>0.05</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>0.05</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>0.05</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>0.1</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>0.1</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>0.1</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>0.05</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>0.05</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>0.05</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2902,20 +2907,20 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>result!$E$1</c15:sqref>
+                          <c15:sqref>result!$D$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>IND_TAG_RATIO_THRESHOLD_AS_STARTING_TAGS</c:v>
+                        <c:v>BRANCH_RATIO_THRESHOLD</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="28575" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent4"/>
                     </a:solidFill>
@@ -2948,178 +2953,610 @@
                         <c:v>38</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>46</c:v>
+                        <c:v>40</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>47</c:v>
+                        <c:v>40</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>40</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>47</c:v>
+                        <c:v>41</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>48</c:v>
+                        <c:v>44</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>40</c:v>
+                        <c:v>45</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>47</c:v>
+                        <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>48</c:v>
+                        <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>40</c:v>
+                        <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>47</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
                         <c:v>48</c:v>
                       </c:pt>
-                      <c:pt idx="12">
-                        <c:v>41</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="15">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
                         <c:v>51</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="19">
                         <c:v>52</c:v>
                       </c:pt>
-                      <c:pt idx="15">
-                        <c:v>44</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="20">
                         <c:v>53</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="21">
                         <c:v>54</c:v>
                       </c:pt>
-                      <c:pt idx="18">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="22">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
                         <c:v>55</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="25">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
                         <c:v>56</c:v>
                       </c:pt>
-                      <c:pt idx="21">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="28">
                         <c:v>56</c:v>
                       </c:pt>
-                      <c:pt idx="24">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
+                      <c:pt idx="29">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
                         <c:v>58</c:v>
                       </c:pt>
-                      <c:pt idx="26">
+                      <c:pt idx="32">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="27">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
+                      <c:pt idx="33">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="29">
+                      <c:pt idx="34">
                         <c:v>62</c:v>
                       </c:pt>
-                      <c:pt idx="30">
-                        <c:v>54</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
+                      <c:pt idx="35">
                         <c:v>64</c:v>
                       </c:pt>
-                      <c:pt idx="32">
+                      <c:pt idx="36">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
                         <c:v>65</c:v>
                       </c:pt>
-                      <c:pt idx="33">
-                        <c:v>54</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
+                      <c:pt idx="39">
                         <c:v>65</c:v>
                       </c:pt>
-                      <c:pt idx="36">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
+                      <c:pt idx="40">
                         <c:v>71</c:v>
                       </c:pt>
-                      <c:pt idx="38">
+                      <c:pt idx="41">
                         <c:v>73</c:v>
                       </c:pt>
-                      <c:pt idx="39">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
+                      <c:pt idx="42">
                         <c:v>76</c:v>
                       </c:pt>
-                      <c:pt idx="41">
+                      <c:pt idx="43">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
                         <c:v>79</c:v>
                       </c:pt>
-                      <c:pt idx="42">
+                      <c:pt idx="48">
                         <c:v>81</c:v>
                       </c:pt>
-                      <c:pt idx="43">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>97</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
+                      <c:pt idx="49">
                         <c:v>83</c:v>
                       </c:pt>
-                      <c:pt idx="46">
-                        <c:v>97</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>99</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>76</c:v>
-                      </c:pt>
                       <c:pt idx="50">
-                        <c:v>78</c:v>
+                        <c:v>91</c:v>
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>91</c:v>
                       </c:pt>
                       <c:pt idx="52">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
                         <c:v>111</c:v>
                       </c:pt>
+                      <c:pt idx="57">
+                        <c:v>111</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>114</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>114</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>result!$D$2:$D$61</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="60"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.005</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.005</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.005</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.005</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.005</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.005</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.005</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.005</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.005</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.005</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.01</c:v>
+                      </c:pt>
                       <c:pt idx="53">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.005</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.005</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>result!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>IND_TAG_RATIO_THRESHOLD_AS_STARTING_TAGS</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref/>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>result!$A$2:$A$61</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="60"/>
+                      <c:pt idx="0">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>111</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>111</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
                         <c:v>114</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>111</c:v>
                       </c:pt>
                       <c:pt idx="59">
                         <c:v>114</c:v>
@@ -3143,19 +3580,19 @@
                         <c:v>0.5</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.4</c:v>
+                        <c:v>0.5</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.3</c:v>
+                        <c:v>0.5</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>0.5</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.4</c:v>
+                        <c:v>0.5</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.3</c:v>
+                        <c:v>0.5</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>0.5</c:v>
@@ -3164,19 +3601,19 @@
                         <c:v>0.4</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.3</c:v>
+                        <c:v>0.5</c:v>
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>0.5</c:v>
                       </c:pt>
                       <c:pt idx="10">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
                         <c:v>0.4</c:v>
                       </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.3</c:v>
-                      </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.5</c:v>
+                        <c:v>0.4</c:v>
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>0.4</c:v>
@@ -3185,49 +3622,49 @@
                         <c:v>0.3</c:v>
                       </c:pt>
                       <c:pt idx="15">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
                         <c:v>0.5</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="18">
                         <c:v>0.4</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="19">
                         <c:v>0.3</c:v>
                       </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="20">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
                         <c:v>0.5</c:v>
                       </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="23">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
                         <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0.3</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0.3</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>0.5</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>0.4</c:v>
                       </c:pt>
                       <c:pt idx="26">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
                         <c:v>0.3</c:v>
                       </c:pt>
-                      <c:pt idx="27">
+                      <c:pt idx="28">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
                         <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>0.3</c:v>
                       </c:pt>
                       <c:pt idx="30">
                         <c:v>0.5</c:v>
@@ -3239,25 +3676,25 @@
                         <c:v>0.3</c:v>
                       </c:pt>
                       <c:pt idx="33">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
                         <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>0.3</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>0.4</c:v>
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>0.3</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>0.5</c:v>
+                        <c:v>0.3</c:v>
                       </c:pt>
                       <c:pt idx="40">
                         <c:v>0.4</c:v>
@@ -3266,19 +3703,19 @@
                         <c:v>0.3</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>0.5</c:v>
+                        <c:v>0.4</c:v>
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>0.4</c:v>
                       </c:pt>
                       <c:pt idx="44">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
                         <c:v>0.3</c:v>
                       </c:pt>
-                      <c:pt idx="45">
-                        <c:v>0.5</c:v>
-                      </c:pt>
                       <c:pt idx="46">
-                        <c:v>0.4</c:v>
+                        <c:v>0.3</c:v>
                       </c:pt>
                       <c:pt idx="47">
                         <c:v>0.3</c:v>
@@ -3287,10 +3724,10 @@
                         <c:v>0.5</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>0.4</c:v>
+                        <c:v>0.5</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>0.3</c:v>
+                        <c:v>0.5</c:v>
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>0.5</c:v>
@@ -3302,19 +3739,19 @@
                         <c:v>0.3</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>0.5</c:v>
+                        <c:v>0.4</c:v>
                       </c:pt>
                       <c:pt idx="55">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
                         <c:v>0.4</c:v>
                       </c:pt>
-                      <c:pt idx="56">
+                      <c:pt idx="57">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
                         <c:v>0.3</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>0.4</c:v>
                       </c:pt>
                       <c:pt idx="59">
                         <c:v>0.3</c:v>
@@ -3329,27 +3766,12 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="425678370"/>
+        <c:axId val="724004819"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3358,8 +3780,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3385,7 +3807,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726094990"/>
+        <c:crossAx val="439440052"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3393,7 +3815,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="726094990"/>
+        <c:axId val="439440052"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3419,14 +3841,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3449,7 +3865,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425678370"/>
+        <c:crossAx val="724004819"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3569,7 +3985,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3596,8 +4012,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3677,6 +4093,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3687,6 +4108,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3698,7 +4124,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3718,6 +4144,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3730,10 +4159,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3773,23 +4202,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3894,8 +4322,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4027,20 +4455,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4054,17 +4481,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4088,25 +4504,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>478790</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>2540</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5946775" y="1184275"/>
-        <a:ext cx="6009640" cy="3418840"/>
+        <a:off x="6565900" y="736600"/>
+        <a:ext cx="6410325" cy="3314700"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4114,6 +4530,96 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6648450" y="1590675"/>
+          <a:ext cx="6134100" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="1524000"/>
+          <a:ext cx="6134100" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4380,11 +4886,12 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
+    <col min="6" max="6" width="12.5"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4435,1337 +4942,1337 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3">
-        <v>46</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1">
         <v>200</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>100</v>
       </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3">
-        <v>0.4</v>
-      </c>
-      <c r="F3">
-        <v>0.556991014903542</v>
-      </c>
-      <c r="G3">
-        <v>0.464077797281521</v>
+      <c r="D3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.523578025395991</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.448966315619163</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4">
-        <v>47</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="1">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1">
         <v>200</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>100</v>
       </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
-      <c r="E4">
-        <v>0.3</v>
-      </c>
-      <c r="F4">
-        <v>0.560102659187167</v>
-      </c>
-      <c r="G4">
-        <v>0.445071491338131</v>
+      <c r="D4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.523578025395991</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.448966315619163</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>40</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>200</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>100</v>
       </c>
-      <c r="D5">
-        <v>0.05</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.523578025395991</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0.448966315619163</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6">
-        <v>47</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="1">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1">
         <v>200</v>
       </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>0.05</v>
-      </c>
-      <c r="E6">
-        <v>0.4</v>
-      </c>
-      <c r="F6">
-        <v>0.559498450592318</v>
-      </c>
-      <c r="G6">
-        <v>0.445071491338131</v>
+      <c r="C6" s="1">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.521377282671632</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.429581614646033</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7">
-        <v>48</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="1">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1">
         <v>200</v>
       </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="1">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.05</v>
       </c>
-      <c r="E7">
-        <v>0.3</v>
-      </c>
-      <c r="F7">
-        <v>0.562609862494256</v>
-      </c>
-      <c r="G7">
-        <v>0.466836636816766</v>
+      <c r="E7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.532020387946884</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.44835225300793</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8">
-        <v>40</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="1">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1">
         <v>200</v>
       </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>0.01</v>
-      </c>
-      <c r="E8">
+      <c r="C8" s="1">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="1">
         <v>0.5</v>
       </c>
-      <c r="F8">
-        <v>0.523578025395991</v>
-      </c>
-      <c r="G8">
-        <v>0.448966315619163</v>
+      <c r="F8" s="1">
+        <v>0.526661602212795</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.442025265683573</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9">
-        <v>47</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="1">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1">
         <v>200</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>100</v>
       </c>
-      <c r="D9">
-        <v>0.01</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="1">
         <v>0.4</v>
       </c>
-      <c r="F9">
-        <v>0.559498450592318</v>
-      </c>
-      <c r="G9">
-        <v>0.445071491338131</v>
+      <c r="F9" s="1">
+        <v>0.556991014903542</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.464077797281521</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10">
-        <v>48</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="1">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1">
         <v>200</v>
       </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="1">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.01</v>
       </c>
-      <c r="E10">
-        <v>0.3</v>
-      </c>
-      <c r="F10">
-        <v>0.562609862494256</v>
-      </c>
-      <c r="G10">
-        <v>0.466836636816766</v>
+      <c r="E10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.540254066123228</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.464077797281521</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11">
-        <v>40</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="1">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1">
         <v>200</v>
       </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="1">
+        <v>70</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.005</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0.5</v>
       </c>
-      <c r="F11">
-        <v>0.523578025395991</v>
-      </c>
-      <c r="G11">
-        <v>0.448966315619163</v>
+      <c r="F11" s="1">
+        <v>0.540254066123228</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.464077797281521</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>47</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>200</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>100</v>
       </c>
-      <c r="D12">
-        <v>0.005</v>
-      </c>
-      <c r="E12">
-        <v>0.4</v>
-      </c>
-      <c r="F12">
-        <v>0.559498450592318</v>
-      </c>
-      <c r="G12">
+      <c r="D12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.560102659187167</v>
+      </c>
+      <c r="G12" s="1">
         <v>0.445071491338131</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13">
-        <v>48</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="1">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1">
         <v>200</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>100</v>
       </c>
-      <c r="D13">
-        <v>0.005</v>
-      </c>
-      <c r="E13">
-        <v>0.3</v>
-      </c>
-      <c r="F13">
-        <v>0.562609862494256</v>
-      </c>
-      <c r="G13">
-        <v>0.466836636816766</v>
+      <c r="D13" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.559498450592318</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.445071491338131</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14">
-        <v>41</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="1">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1">
         <v>200</v>
       </c>
-      <c r="C14">
-        <v>70</v>
-      </c>
-      <c r="D14">
-        <v>0.1</v>
-      </c>
-      <c r="E14">
-        <v>0.5</v>
-      </c>
-      <c r="F14">
-        <v>0.521377282671632</v>
-      </c>
-      <c r="G14">
-        <v>0.429581614646033</v>
+      <c r="C14" s="1">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.559498450592318</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.445071491338131</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15">
-        <v>51</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="1">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1">
         <v>200</v>
       </c>
-      <c r="C15">
-        <v>70</v>
-      </c>
-      <c r="D15">
-        <v>0.1</v>
-      </c>
-      <c r="E15">
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="E15" s="1">
         <v>0.4</v>
       </c>
-      <c r="F15">
-        <v>0.565358886120885</v>
-      </c>
-      <c r="G15">
-        <v>0.451105737563396</v>
+      <c r="F15" s="1">
+        <v>0.559498450592318</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.445071491338131</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16">
-        <v>52</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="1">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1">
         <v>200</v>
       </c>
-      <c r="C16">
-        <v>70</v>
-      </c>
-      <c r="D16">
-        <v>0.1</v>
-      </c>
-      <c r="E16">
+      <c r="C16" s="1">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="1">
         <v>0.3</v>
       </c>
-      <c r="F16">
-        <v>0.568470491989352</v>
-      </c>
-      <c r="G16">
-        <v>0.458079530252104</v>
+      <c r="F16" s="1">
+        <v>0.562609862494256</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.466836636816766</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17">
-        <v>44</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="1">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1">
         <v>200</v>
       </c>
-      <c r="C17">
-        <v>70</v>
-      </c>
-      <c r="D17">
-        <v>0.05</v>
-      </c>
-      <c r="E17">
-        <v>0.5</v>
-      </c>
-      <c r="F17">
-        <v>0.532020387946884</v>
-      </c>
-      <c r="G17">
-        <v>0.44835225300793</v>
+      <c r="C17" s="1">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.562609862494256</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.466836636816766</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18">
-        <v>53</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="1">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1">
         <v>200</v>
       </c>
-      <c r="C18">
-        <v>70</v>
-      </c>
-      <c r="D18">
-        <v>0.05</v>
-      </c>
-      <c r="E18">
-        <v>0.4</v>
-      </c>
-      <c r="F18">
-        <v>0.571170222009815</v>
-      </c>
-      <c r="G18">
-        <v>0.48706180951737</v>
+      <c r="C18" s="1">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.562609862494256</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.466836636816766</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19">
-        <v>54</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="1">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1">
         <v>200</v>
       </c>
-      <c r="C19">
-        <v>70</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="1">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1">
         <v>0.05</v>
       </c>
-      <c r="E19">
-        <v>0.3</v>
-      </c>
-      <c r="F19">
-        <v>0.574281591378602</v>
-      </c>
-      <c r="G19">
-        <v>0.48492815246225</v>
+      <c r="E19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.545210374409216</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.470540208039117</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20">
-        <v>46</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="1">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1">
         <v>200</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>70</v>
       </c>
-      <c r="D20">
-        <v>0.01</v>
-      </c>
-      <c r="E20">
-        <v>0.5</v>
-      </c>
-      <c r="F20">
-        <v>0.540254066123228</v>
-      </c>
-      <c r="G20">
-        <v>0.464077797281521</v>
+      <c r="D20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.565358886120885</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.451105737563396</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21">
-        <v>55</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="1">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1">
         <v>200</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>70</v>
       </c>
-      <c r="D21">
-        <v>0.01</v>
-      </c>
-      <c r="E21">
-        <v>0.4</v>
-      </c>
-      <c r="F21">
-        <v>0.576145570919796</v>
-      </c>
-      <c r="G21">
-        <v>0.484886169153148</v>
+      <c r="D21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.568470491989352</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.458079530252104</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22">
-        <v>56</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="1">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1">
         <v>200</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>70</v>
       </c>
-      <c r="D22">
-        <v>0.01</v>
-      </c>
-      <c r="E22">
-        <v>0.3</v>
-      </c>
-      <c r="F22">
-        <v>0.579183845434881</v>
-      </c>
-      <c r="G22">
-        <v>0.483081223689378</v>
+      <c r="D22" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.571170222009815</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.48706180951737</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23">
-        <v>46</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="1">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1">
         <v>200</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>70</v>
       </c>
-      <c r="D23">
-        <v>0.005</v>
-      </c>
-      <c r="E23">
-        <v>0.5</v>
-      </c>
-      <c r="F23">
-        <v>0.540254066123228</v>
-      </c>
-      <c r="G23">
-        <v>0.464077797281521</v>
+      <c r="D23" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.574281591378602</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.48492815246225</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24">
-        <v>55</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="1">
+        <v>54</v>
+      </c>
+      <c r="B24" s="1">
         <v>200</v>
       </c>
-      <c r="C24">
-        <v>70</v>
-      </c>
-      <c r="D24">
-        <v>0.005</v>
-      </c>
-      <c r="E24">
-        <v>0.4</v>
-      </c>
-      <c r="F24">
-        <v>0.576145570919796</v>
-      </c>
-      <c r="G24">
-        <v>0.484886169153148</v>
+      <c r="C24" s="1">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.556980020207097</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.48492815246225</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25">
-        <v>56</v>
-      </c>
-      <c r="B25">
+      <c r="A25" s="1">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1">
         <v>200</v>
       </c>
-      <c r="C25">
-        <v>70</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="1">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1">
         <v>0.005</v>
       </c>
-      <c r="E25">
-        <v>0.3</v>
-      </c>
-      <c r="F25">
-        <v>0.579183845434881</v>
-      </c>
-      <c r="G25">
-        <v>0.483081223689378</v>
+      <c r="E25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.556980020207097</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.48492815246225</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26">
-        <v>45</v>
-      </c>
-      <c r="B26">
+      <c r="A26" s="1">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1">
         <v>200</v>
       </c>
-      <c r="C26">
-        <v>50</v>
-      </c>
-      <c r="D26">
-        <v>0.1</v>
-      </c>
-      <c r="E26">
-        <v>0.5</v>
-      </c>
-      <c r="F26">
-        <v>0.526661602212795</v>
-      </c>
-      <c r="G26">
-        <v>0.442025265683573</v>
+      <c r="C26" s="1">
+        <v>70</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.576145570919796</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.484886169153148</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27">
-        <v>58</v>
-      </c>
-      <c r="B27">
+      <c r="A27" s="1">
+        <v>55</v>
+      </c>
+      <c r="B27" s="1">
         <v>200</v>
       </c>
-      <c r="C27">
-        <v>50</v>
-      </c>
-      <c r="D27">
-        <v>0.1</v>
-      </c>
-      <c r="E27">
+      <c r="C27" s="1">
+        <v>70</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="E27" s="1">
         <v>0.4</v>
       </c>
-      <c r="F27">
-        <v>0.573491598561856</v>
-      </c>
-      <c r="G27">
-        <v>0.497272235653214</v>
+      <c r="F27" s="1">
+        <v>0.576145570919796</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.484886169153148</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28">
-        <v>60</v>
-      </c>
-      <c r="B28">
+      <c r="A28" s="1">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1">
         <v>200</v>
       </c>
-      <c r="C28">
-        <v>50</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="1">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1">
         <v>0.1</v>
       </c>
-      <c r="E28">
-        <v>0.3</v>
-      </c>
-      <c r="F28">
-        <v>0.577194967382644</v>
-      </c>
-      <c r="G28">
-        <v>0.493499917190007</v>
+      <c r="E28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.537590257758212</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.484886169153148</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29">
-        <v>50</v>
-      </c>
-      <c r="B29">
+      <c r="A29" s="1">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1">
         <v>200</v>
       </c>
-      <c r="C29">
-        <v>50</v>
-      </c>
-      <c r="D29">
-        <v>0.05</v>
-      </c>
-      <c r="E29">
-        <v>0.5</v>
-      </c>
-      <c r="F29">
-        <v>0.545210374409216</v>
-      </c>
-      <c r="G29">
-        <v>0.470540208039117</v>
+      <c r="C29" s="1">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.579183845434881</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.483081223689378</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30">
-        <v>60</v>
-      </c>
-      <c r="B30">
+      <c r="A30" s="1">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1">
         <v>200</v>
       </c>
-      <c r="C30">
-        <v>50</v>
-      </c>
-      <c r="D30">
-        <v>0.05</v>
-      </c>
-      <c r="E30">
-        <v>0.4</v>
-      </c>
-      <c r="F30">
-        <v>0.579268301184207</v>
-      </c>
-      <c r="G30">
-        <v>0.493499917190007</v>
+      <c r="C30" s="1">
+        <v>70</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.579183845434881</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.483081223689378</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31">
-        <v>62</v>
-      </c>
-      <c r="B31">
+      <c r="A31" s="1">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1">
         <v>200</v>
       </c>
-      <c r="C31">
-        <v>50</v>
-      </c>
-      <c r="D31">
-        <v>0.05</v>
-      </c>
-      <c r="E31">
-        <v>0.3</v>
-      </c>
-      <c r="F31">
-        <v>0.582968819786153</v>
-      </c>
-      <c r="G31">
-        <v>0.512474473749563</v>
+      <c r="C31" s="1">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.538722996730027</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.483081223689378</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32">
-        <v>54</v>
-      </c>
-      <c r="B32">
+      <c r="A32" s="1">
+        <v>56</v>
+      </c>
+      <c r="B32" s="1">
         <v>200</v>
       </c>
-      <c r="C32">
-        <v>50</v>
-      </c>
-      <c r="D32">
-        <v>0.01</v>
-      </c>
-      <c r="E32">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E32" s="1">
         <v>0.5</v>
       </c>
-      <c r="F32">
-        <v>0.556980020207097</v>
-      </c>
-      <c r="G32">
-        <v>0.48492815246225</v>
+      <c r="F32" s="1">
+        <v>0.538722996730027</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.483081223689378</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33">
-        <v>64</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="1">
+        <v>58</v>
+      </c>
+      <c r="B33" s="1">
         <v>200</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>50</v>
       </c>
-      <c r="D33">
-        <v>0.01</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="1">
         <v>0.4</v>
       </c>
-      <c r="F33">
-        <v>0.588564870798337</v>
-      </c>
-      <c r="G33">
-        <v>0.519318941444759</v>
+      <c r="F33" s="1">
+        <v>0.573491598561856</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.497272235653214</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34">
-        <v>65</v>
-      </c>
-      <c r="B34">
+      <c r="A34" s="1">
+        <v>60</v>
+      </c>
+      <c r="B34" s="1">
         <v>200</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>50</v>
       </c>
-      <c r="D34">
-        <v>0.01</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E34" s="1">
         <v>0.3</v>
       </c>
-      <c r="F34">
-        <v>0.589138364703075</v>
-      </c>
-      <c r="G34">
-        <v>0.523141637338013</v>
+      <c r="F34" s="1">
+        <v>0.577194967382644</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.493499917190007</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35">
-        <v>54</v>
-      </c>
-      <c r="B35">
+      <c r="A35" s="1">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1">
         <v>200</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>50</v>
       </c>
-      <c r="D35">
-        <v>0.005</v>
-      </c>
-      <c r="E35">
-        <v>0.5</v>
-      </c>
-      <c r="F35">
-        <v>0.556980020207097</v>
-      </c>
-      <c r="G35">
-        <v>0.48492815246225</v>
+      <c r="D35" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.579268301184207</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.493499917190007</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36">
-        <v>64</v>
-      </c>
-      <c r="B36">
+      <c r="A36" s="1">
+        <v>62</v>
+      </c>
+      <c r="B36" s="1">
         <v>200</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>50</v>
       </c>
-      <c r="D36">
-        <v>0.005</v>
-      </c>
-      <c r="E36">
-        <v>0.4</v>
-      </c>
-      <c r="F36">
-        <v>0.588564870798337</v>
-      </c>
-      <c r="G36">
-        <v>0.519318941444759</v>
+      <c r="D36" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.582968819786153</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.512474473749563</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37">
-        <v>65</v>
-      </c>
-      <c r="B37">
+      <c r="A37" s="1">
+        <v>64</v>
+      </c>
+      <c r="B37" s="1">
         <v>200</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>50</v>
       </c>
-      <c r="D37">
-        <v>0.005</v>
-      </c>
-      <c r="E37">
-        <v>0.3</v>
-      </c>
-      <c r="F37">
-        <v>0.589138364703075</v>
-      </c>
-      <c r="G37">
-        <v>0.523141637338013</v>
+      <c r="D37" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.588564870798337</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.519318941444759</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38">
-        <v>55</v>
-      </c>
-      <c r="B38">
+      <c r="A38" s="1">
+        <v>64</v>
+      </c>
+      <c r="B38" s="1">
         <v>200</v>
       </c>
-      <c r="C38">
-        <v>30</v>
-      </c>
-      <c r="D38">
-        <v>0.1</v>
-      </c>
-      <c r="E38">
-        <v>0.5</v>
-      </c>
-      <c r="F38">
-        <v>0.537590257758212</v>
-      </c>
-      <c r="G38">
-        <v>0.484886169153148</v>
+      <c r="C38" s="1">
+        <v>50</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.588564870798337</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.519318941444759</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39">
-        <v>71</v>
-      </c>
-      <c r="B39">
+      <c r="A39" s="1">
+        <v>64</v>
+      </c>
+      <c r="B39" s="1">
         <v>200</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>30</v>
       </c>
-      <c r="D39">
-        <v>0.1</v>
-      </c>
-      <c r="E39">
-        <v>0.4</v>
-      </c>
-      <c r="F39">
-        <v>0.587252866664126</v>
-      </c>
-      <c r="G39">
-        <v>0.5318440131015</v>
+      <c r="D39" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.561028892703059</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.519318941444759</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40">
-        <v>73</v>
-      </c>
-      <c r="B40">
+      <c r="A40" s="1">
+        <v>65</v>
+      </c>
+      <c r="B40" s="1">
         <v>200</v>
       </c>
-      <c r="C40">
-        <v>30</v>
-      </c>
-      <c r="D40">
-        <v>0.1</v>
-      </c>
-      <c r="E40">
+      <c r="C40" s="1">
+        <v>50</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E40" s="1">
         <v>0.3</v>
       </c>
-      <c r="F40">
-        <v>0.590728042785645</v>
-      </c>
-      <c r="G40">
-        <v>0.532773204932942</v>
+      <c r="F40" s="1">
+        <v>0.589138364703075</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.523141637338013</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41">
-        <v>64</v>
-      </c>
-      <c r="B41">
+      <c r="A41" s="1">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1">
         <v>200</v>
       </c>
-      <c r="C41">
-        <v>30</v>
-      </c>
-      <c r="D41">
-        <v>0.05</v>
-      </c>
-      <c r="E41">
-        <v>0.5</v>
-      </c>
-      <c r="F41">
-        <v>0.561028892703059</v>
-      </c>
-      <c r="G41">
-        <v>0.519318941444759</v>
+      <c r="C41" s="1">
+        <v>50</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.589138364703075</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.523141637338013</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42">
-        <v>76</v>
-      </c>
-      <c r="B42">
+      <c r="A42" s="1">
+        <v>71</v>
+      </c>
+      <c r="B42" s="1">
         <v>200</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>30</v>
       </c>
-      <c r="D42">
-        <v>0.05</v>
-      </c>
-      <c r="E42">
+      <c r="D42" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E42" s="1">
         <v>0.4</v>
       </c>
-      <c r="F42">
-        <v>0.596695076282645</v>
-      </c>
-      <c r="G42">
-        <v>0.540081691191612</v>
+      <c r="F42" s="1">
+        <v>0.587252866664126</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.5318440131015</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43">
-        <v>79</v>
-      </c>
-      <c r="B43">
+      <c r="A43" s="1">
+        <v>73</v>
+      </c>
+      <c r="B43" s="1">
         <v>200</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>30</v>
       </c>
-      <c r="D43">
-        <v>0.05</v>
-      </c>
-      <c r="E43">
+      <c r="D43" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E43" s="1">
         <v>0.3</v>
       </c>
-      <c r="F43">
-        <v>0.601625074503376</v>
-      </c>
-      <c r="G43">
-        <v>0.546936552085958</v>
+      <c r="F43" s="1">
+        <v>0.590728042785645</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.532773204932942</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44">
-        <v>81</v>
-      </c>
-      <c r="B44">
+      <c r="A44" s="1">
+        <v>76</v>
+      </c>
+      <c r="B44" s="1">
         <v>200</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>30</v>
       </c>
-      <c r="D44">
-        <v>0.01</v>
-      </c>
-      <c r="E44">
-        <v>0.5</v>
-      </c>
-      <c r="F44">
-        <v>0.587998420339492</v>
-      </c>
-      <c r="G44">
-        <v>0.539908563173692</v>
+      <c r="D44" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.596695076282645</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.540081691191612</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45">
-        <v>95</v>
-      </c>
-      <c r="B45">
+      <c r="A45" s="1">
+        <v>76</v>
+      </c>
+      <c r="B45" s="1">
         <v>200</v>
       </c>
-      <c r="C45">
-        <v>30</v>
-      </c>
-      <c r="D45">
-        <v>0.01</v>
-      </c>
-      <c r="E45">
+      <c r="C45" s="1">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="1">
         <v>0.4</v>
       </c>
-      <c r="F45">
-        <v>0.622328588803355</v>
-      </c>
-      <c r="G45">
-        <v>0.59270923930847</v>
+      <c r="F45" s="1">
+        <v>0.590470890288889</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.540081691191612</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46">
-        <v>97</v>
-      </c>
-      <c r="B46">
+      <c r="A46" s="1">
+        <v>76</v>
+      </c>
+      <c r="B46" s="1">
         <v>200</v>
       </c>
-      <c r="C46">
-        <v>30</v>
-      </c>
-      <c r="D46">
-        <v>0.01</v>
-      </c>
-      <c r="E46">
-        <v>0.3</v>
-      </c>
-      <c r="F46">
-        <v>0.624269360534038</v>
-      </c>
-      <c r="G46">
-        <v>0.595648346719839</v>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.590470890288889</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.540081691191612</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47">
-        <v>83</v>
-      </c>
-      <c r="B47">
+      <c r="A47" s="1">
+        <v>78</v>
+      </c>
+      <c r="B47" s="1">
         <v>200</v>
       </c>
-      <c r="C47">
-        <v>30</v>
-      </c>
-      <c r="D47">
-        <v>0.005</v>
-      </c>
-      <c r="E47">
-        <v>0.5</v>
-      </c>
-      <c r="F47">
-        <v>0.591731496597416</v>
-      </c>
-      <c r="G47">
-        <v>0.544798568900989</v>
+      <c r="C47" s="1">
+        <v>10</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.593909275027538</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.564345860147633</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48">
-        <v>97</v>
-      </c>
-      <c r="B48">
+      <c r="A48" s="1">
+        <v>78</v>
+      </c>
+      <c r="B48" s="1">
         <v>200</v>
       </c>
-      <c r="C48">
-        <v>30</v>
-      </c>
-      <c r="D48">
-        <v>0.005</v>
-      </c>
-      <c r="E48">
-        <v>0.4</v>
-      </c>
-      <c r="F48">
-        <v>0.626057454710904</v>
-      </c>
-      <c r="G48">
-        <v>0.595648346719839</v>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.593909275027538</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.564345860147633</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49">
-        <v>99</v>
-      </c>
-      <c r="B49">
+      <c r="A49" s="1">
+        <v>79</v>
+      </c>
+      <c r="B49" s="1">
         <v>200</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>30</v>
       </c>
-      <c r="D49">
-        <v>0.005</v>
-      </c>
-      <c r="E49">
+      <c r="D49" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E49" s="1">
         <v>0.3</v>
       </c>
-      <c r="F49">
-        <v>0.627997974790007</v>
-      </c>
-      <c r="G49">
-        <v>0.586185140453932</v>
+      <c r="F49" s="1">
+        <v>0.601625074503376</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.546936552085958</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50">
-        <v>56</v>
-      </c>
-      <c r="B50">
+      <c r="A50" s="1">
+        <v>81</v>
+      </c>
+      <c r="B50" s="1">
         <v>200</v>
       </c>
-      <c r="C50">
-        <v>10</v>
-      </c>
-      <c r="D50">
-        <v>0.1</v>
-      </c>
-      <c r="E50">
+      <c r="C50" s="1">
+        <v>30</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E50" s="1">
         <v>0.5</v>
       </c>
-      <c r="F50">
-        <v>0.538722996730027</v>
-      </c>
-      <c r="G50">
-        <v>0.483081223689378</v>
+      <c r="F50" s="1">
+        <v>0.587998420339492</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.539908563173692</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51">
-        <v>76</v>
-      </c>
-      <c r="B51">
+      <c r="A51" s="1">
+        <v>83</v>
+      </c>
+      <c r="B51" s="1">
         <v>200</v>
       </c>
-      <c r="C51">
-        <v>10</v>
-      </c>
-      <c r="D51">
-        <v>0.1</v>
-      </c>
-      <c r="E51">
-        <v>0.4</v>
-      </c>
-      <c r="F51">
-        <v>0.590470890288889</v>
-      </c>
-      <c r="G51">
-        <v>0.540081691191612</v>
+      <c r="C51" s="1">
+        <v>30</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.591731496597416</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.544798568900989</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52">
-        <v>78</v>
-      </c>
-      <c r="B52">
+      <c r="A52" s="1">
+        <v>91</v>
+      </c>
+      <c r="B52" s="1">
         <v>200</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>10</v>
       </c>
-      <c r="D52">
-        <v>0.1</v>
-      </c>
-      <c r="E52">
-        <v>0.3</v>
-      </c>
-      <c r="F52">
-        <v>0.593909275027538</v>
-      </c>
-      <c r="G52">
-        <v>0.564345860147633</v>
+      <c r="D52" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.606568199093754</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.568698913920584</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>91</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>200</v>
       </c>
-      <c r="C53">
-        <v>10</v>
-      </c>
-      <c r="D53">
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
         <v>0.05</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>0.5</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>0.606568199093754</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="1">
         <v>0.568698913920584</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54">
-        <v>111</v>
-      </c>
-      <c r="B54">
+      <c r="A54" s="1">
+        <v>95</v>
+      </c>
+      <c r="B54" s="1">
         <v>200</v>
       </c>
-      <c r="C54">
-        <v>10</v>
-      </c>
-      <c r="D54">
-        <v>0.05</v>
-      </c>
-      <c r="E54">
+      <c r="C54" s="1">
+        <v>30</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E54" s="1">
         <v>0.4</v>
       </c>
-      <c r="F54">
-        <v>0.628596716786359</v>
-      </c>
-      <c r="G54">
-        <v>0.624443949705153</v>
+      <c r="F54" s="1">
+        <v>0.622328588803355</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.59270923930847</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55">
-        <v>114</v>
-      </c>
-      <c r="B55">
+      <c r="A55" s="1">
+        <v>97</v>
+      </c>
+      <c r="B55" s="1">
         <v>200</v>
       </c>
-      <c r="C55">
-        <v>10</v>
-      </c>
-      <c r="D55">
-        <v>0.05</v>
-      </c>
-      <c r="E55">
+      <c r="C55" s="1">
+        <v>30</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E55" s="1">
         <v>0.3</v>
       </c>
-      <c r="F55">
-        <v>0.6330696177443</v>
-      </c>
-      <c r="G55">
-        <v>0.607638058356661</v>
+      <c r="F55" s="1">
+        <v>0.624269360534038</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.595648346719839</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="B56">
+      <c r="A56" s="1">
+        <v>97</v>
+      </c>
+      <c r="B56" s="1">
         <v>200</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>0.1</v>
-      </c>
-      <c r="E56">
-        <v>0.5</v>
-      </c>
-      <c r="F56">
-        <v>0.538722996730027</v>
-      </c>
-      <c r="G56">
-        <v>0.483081223689378</v>
+      <c r="C56" s="1">
+        <v>30</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.626057454710904</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.595648346719839</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57">
-        <v>76</v>
-      </c>
-      <c r="B57">
+      <c r="A57" s="1">
+        <v>99</v>
+      </c>
+      <c r="B57" s="1">
         <v>200</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>0.1</v>
-      </c>
-      <c r="E57">
-        <v>0.4</v>
-      </c>
-      <c r="F57">
-        <v>0.590470890288889</v>
-      </c>
-      <c r="G57">
-        <v>0.540081691191612</v>
+      <c r="C57" s="1">
+        <v>30</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.627997974790007</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.586185140453932</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58">
-        <v>78</v>
-      </c>
-      <c r="B58">
+      <c r="A58" s="1">
+        <v>111</v>
+      </c>
+      <c r="B58" s="1">
         <v>200</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>0.1</v>
-      </c>
-      <c r="E58">
-        <v>0.3</v>
-      </c>
-      <c r="F58">
-        <v>0.593909275027538</v>
-      </c>
-      <c r="G58">
-        <v>0.564345860147633</v>
+      <c r="C58" s="1">
+        <v>10</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.628596716786359</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.624443949705153</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59">
-        <v>91</v>
-      </c>
-      <c r="B59">
+      <c r="A59" s="1">
+        <v>111</v>
+      </c>
+      <c r="B59" s="1">
         <v>200</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>1</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>0.05</v>
       </c>
-      <c r="E59">
-        <v>0.5</v>
-      </c>
-      <c r="F59">
-        <v>0.606568199093754</v>
-      </c>
-      <c r="G59">
-        <v>0.568698913920584</v>
+      <c r="E59" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.628596716786359</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.624443949705153</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60">
-        <v>111</v>
-      </c>
-      <c r="B60">
+      <c r="A60" s="1">
+        <v>114</v>
+      </c>
+      <c r="B60" s="1">
         <v>200</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
+      <c r="C60" s="1">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1">
         <v>0.05</v>
       </c>
-      <c r="E60">
-        <v>0.4</v>
-      </c>
-      <c r="F60">
-        <v>0.628596716786359</v>
-      </c>
-      <c r="G60">
-        <v>0.624443949705153</v>
+      <c r="E60" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.6330696177443</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.607638058356661</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5792,6 +6299,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G61">
+    <sortCondition ref="A2:A61"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
